--- a/Documentos/CRUD.xlsx
+++ b/Documentos/CRUD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RONALD\Documents\EAFIT\2017-1\Base de datos\Proyecto\SpaceManager\CRUD - DICCIONARIO- DIEÑO MER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RONALD\Documents\EAFIT\2017-1\Base de datos\Proyecto\SpaceManager\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -650,13 +650,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
